--- a/tables/gdd_approach/TableS1_global_inadequacies.xlsx
+++ b/tables/gdd_approach/TableS1_global_inadequacies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/global_intake_inadequacies/tables/gdd_approach/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6B904926-D38D-5E4B-8CAA-E6182842A052}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420B24D2-95C7-8745-A5A9-50237ABE9DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5900" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="8200" yWindow="3760" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS1_global_inadequacies" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>Folate (vitamin B9)</t>
   </si>
   <si>
-    <t>¬µg DFE</t>
-  </si>
-  <si>
     <t>Vitamin C</t>
   </si>
   <si>
@@ -55,15 +52,9 @@
     <t>Vitamin A (RAE)</t>
   </si>
   <si>
-    <t>¬µg RAE</t>
-  </si>
-  <si>
     <t>Vitamin B12 (cobalamin)</t>
   </si>
   <si>
-    <t>ug</t>
-  </si>
-  <si>
     <t>Thiamin (vitamin B1)</t>
   </si>
   <si>
@@ -110,12 +101,24 @@
   </si>
   <si>
     <t>Prevalence of inadequacies</t>
+  </si>
+  <si>
+    <t>µg DFE</t>
+  </si>
+  <si>
+    <t>µg RAE</t>
+  </si>
+  <si>
+    <t>µg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -567,7 +570,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -610,15 +613,17 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -658,6 +663,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -971,11 +977,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -989,33 +995,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="3"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -1031,11 +1037,11 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.66900000000000004</v>
+      <c r="E3" s="4">
+        <v>5.0636951699998596</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.668687332273737</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1051,11 +1057,11 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.54300000000000004</v>
+      <c r="E4" s="4">
+        <v>4.10965250783598</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.54270102756540695</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1066,16 +1072,16 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="E5">
-        <v>4.05</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.53500000000000003</v>
+      <c r="E5" s="4">
+        <v>4.04961523791704</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.53477279324021698</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1083,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -1091,11 +1097,11 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>4.03</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.53200000000000003</v>
+      <c r="E6" s="4">
+        <v>4.03203737431779</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.53245154476007694</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1103,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -1111,11 +1117,11 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E7">
-        <v>3.88</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.51200000000000001</v>
+      <c r="E7" s="4">
+        <v>3.88023354606716</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.51240505824500104</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1123,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E8">
-        <v>3.63</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.47899999999999998</v>
+      <c r="E8" s="4">
+        <v>3.6258507520371501</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.47881248479704802</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1143,19 +1149,19 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
-      <c r="E9">
-        <v>2.96</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.39100000000000001</v>
+      <c r="E9" s="4">
+        <v>2.9641747525236601</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.39143472130812901</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1163,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -1171,11 +1177,11 @@
       <c r="D10" t="s">
         <v>3</v>
       </c>
-      <c r="E10">
-        <v>2.23</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.29499999999999998</v>
+      <c r="E10" s="4">
+        <v>2.2348684696742498</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.29512602650787201</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1183,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -1191,19 +1197,19 @@
       <c r="D11" t="s">
         <v>3</v>
       </c>
-      <c r="E11">
-        <v>1.67</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.221</v>
+      <c r="E11" s="4">
+        <v>1.67320704548258</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.220955708829803</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -1211,79 +1217,79 @@
       <c r="D12" t="s">
         <v>5</v>
       </c>
-      <c r="E12">
-        <v>5.47</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.72199999999999998</v>
+      <c r="E12" s="4">
+        <v>5.4700560129126403</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.72234939897904005</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
-      <c r="E13">
-        <v>3.78</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.499</v>
+      <c r="E13" s="4">
+        <v>3.7818351536102899</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.49941103780280999</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>3.36</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.44400000000000001</v>
+        <v>5</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3.35915893807277</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.44359444112893198</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>3.36</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.44400000000000001</v>
+        <v>3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>3.3588247903917798</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.44355031518653398</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -1291,31 +1297,31 @@
       <c r="D16" t="s">
         <v>5</v>
       </c>
-      <c r="E16">
-        <v>1.99</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.26300000000000001</v>
+      <c r="E16" s="4">
+        <v>1.99422478845216</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.26334777449572899</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
       </c>
-      <c r="E17">
-        <v>1.01</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.13300000000000001</v>
+      <c r="E17" s="4">
+        <v>1.0086494819607199</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.13319741979879501</v>
       </c>
     </row>
   </sheetData>

--- a/tables/gdd_approach/TableS1_global_inadequacies.xlsx
+++ b/tables/gdd_approach/TableS1_global_inadequacies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/global_intake_inadequacies/tables/gdd_approach/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420B24D2-95C7-8745-A5A9-50237ABE9DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31834384-A488-C141-888F-1FD915A8B926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8200" yWindow="3760" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,7 +436,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -554,15 +554,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color indexed="64"/>
@@ -617,11 +608,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -981,7 +972,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F17" sqref="A1:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -995,32 +986,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1037,10 +1028,10 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>5.0636951699998596</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>0.668687332273737</v>
       </c>
     </row>
@@ -1057,10 +1048,10 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>4.10965250783598</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>0.54270102756540695</v>
       </c>
     </row>
@@ -1077,10 +1068,10 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>4.04961523791704</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>0.53477279324021698</v>
       </c>
     </row>
@@ -1097,10 +1088,10 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>4.03203737431779</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>0.53245154476007694</v>
       </c>
     </row>
@@ -1117,10 +1108,10 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>3.88023354606716</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>0.51240505824500104</v>
       </c>
     </row>
@@ -1137,10 +1128,10 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>3.6258507520371501</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>0.47881248479704802</v>
       </c>
     </row>
@@ -1157,10 +1148,10 @@
       <c r="D9" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>2.9641747525236601</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>0.39143472130812901</v>
       </c>
     </row>
@@ -1177,10 +1168,10 @@
       <c r="D10" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>2.2348684696742498</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>0.29512602650787201</v>
       </c>
     </row>
@@ -1197,10 +1188,10 @@
       <c r="D11" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>1.67320704548258</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>0.220955708829803</v>
       </c>
     </row>
@@ -1217,10 +1208,10 @@
       <c r="D12" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>5.4700560129126403</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>0.72234939897904005</v>
       </c>
     </row>
@@ -1237,10 +1228,10 @@
       <c r="D13" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>3.7818351536102899</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>0.49941103780280999</v>
       </c>
     </row>
@@ -1257,10 +1248,10 @@
       <c r="D14" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>3.35915893807277</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <v>0.44359444112893198</v>
       </c>
     </row>
@@ -1277,10 +1268,10 @@
       <c r="D15" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>3.3588247903917798</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="3">
         <v>0.44355031518653398</v>
       </c>
     </row>
@@ -1297,10 +1288,10 @@
       <c r="D16" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>1.99422478845216</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="3">
         <v>0.26334777449572899</v>
       </c>
     </row>
@@ -1317,10 +1308,10 @@
       <c r="D17" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <v>1.0086494819607199</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="3">
         <v>0.13319741979879501</v>
       </c>
     </row>

--- a/tables/gdd_approach/TableS1_global_inadequacies.xlsx
+++ b/tables/gdd_approach/TableS1_global_inadequacies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/global_intake_inadequacies/tables/gdd_approach/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31834384-A488-C141-888F-1FD915A8B926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEC964E-82EE-5849-A874-1BEC46A3FAF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8200" yWindow="3760" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18960" yWindow="4380" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS1_global_inadequacies" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
     <t>µg RAE</t>
   </si>
   <si>
-    <t>µg</t>
+    <t>ug</t>
   </si>
 </sst>
 </file>
@@ -117,7 +117,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -610,7 +610,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -969,20 +969,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="A1:F17"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1220,19 +1220,19 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13" s="2">
-        <v>3.7818351536102899</v>
+        <v>4.7672493213966503</v>
       </c>
       <c r="F13" s="3">
-        <v>0.49941103780280999</v>
+        <v>0.62954011329410098</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1240,19 +1240,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E14" s="2">
-        <v>3.35915893807277</v>
+        <v>3.7818351536102899</v>
       </c>
       <c r="F14" s="3">
-        <v>0.44359444112893198</v>
+        <v>0.49941103780280999</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1260,19 +1260,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15" s="2">
-        <v>3.3588247903917798</v>
+        <v>3.4799951323483098</v>
       </c>
       <c r="F15" s="3">
-        <v>0.44355031518653398</v>
+        <v>0.45955149021650998</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1280,19 +1280,19 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16" s="2">
-        <v>1.99422478845216</v>
+        <v>3.3588247903917798</v>
       </c>
       <c r="F16" s="3">
-        <v>0.26334777449572899</v>
+        <v>0.44355031518653398</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1314,6 +1314,10 @@
       <c r="F17" s="3">
         <v>0.13319741979879501</v>
       </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tables/gdd_approach/TableS1_global_inadequacies.xlsx
+++ b/tables/gdd_approach/TableS1_global_inadequacies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/global_intake_inadequacies/tables/gdd_approach/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEC964E-82EE-5849-A874-1BEC46A3FAF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E66547-CE57-F644-9A6C-B818E6206E0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18960" yWindow="4380" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19840" yWindow="4440" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS1_global_inadequacies" sheetId="1" r:id="rId1"/>
@@ -972,7 +972,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tables/gdd_approach/TableS1_global_inadequacies.xlsx
+++ b/tables/gdd_approach/TableS1_global_inadequacies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/global_intake_inadequacies/tables/gdd_approach/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E66547-CE57-F644-9A6C-B818E6206E0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5398657-1FD2-644F-878F-90865C0D4A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19840" yWindow="4440" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19880" yWindow="3020" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS1_global_inadequacies" sheetId="1" r:id="rId1"/>
@@ -606,13 +606,12 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -972,7 +971,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -986,14 +985,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1029,10 +1024,10 @@
         <v>3</v>
       </c>
       <c r="E3" s="2">
-        <v>5.0636951699998596</v>
+        <v>5.0723590238321803</v>
       </c>
       <c r="F3" s="3">
-        <v>0.668687332273737</v>
+        <v>0.66983143931648803</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1049,10 +1044,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="2">
-        <v>4.10965250783598</v>
+        <v>4.1228736559699204</v>
       </c>
       <c r="F4" s="3">
-        <v>0.54270102756540695</v>
+        <v>0.54444694906709201</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1069,10 +1064,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="2">
-        <v>4.04961523791704</v>
+        <v>4.0585494754699898</v>
       </c>
       <c r="F5" s="3">
-        <v>0.53477279324021698</v>
+        <v>0.53595260586214899</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1089,10 +1084,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="2">
-        <v>4.03203737431779</v>
+        <v>4.0380579157425904</v>
       </c>
       <c r="F6" s="3">
-        <v>0.53245154476007694</v>
+        <v>0.53324658862607499</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1109,10 +1104,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="2">
-        <v>3.88023354606716</v>
+        <v>3.8967077700000798</v>
       </c>
       <c r="F7" s="3">
-        <v>0.51240505824500104</v>
+        <v>0.51458056535653696</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1129,10 +1124,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="2">
-        <v>3.6258507520371501</v>
+        <v>3.6272559727711502</v>
       </c>
       <c r="F8" s="3">
-        <v>0.47881248479704802</v>
+        <v>0.47899805151706698</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1149,10 +1144,10 @@
         <v>3</v>
       </c>
       <c r="E9" s="2">
-        <v>2.9641747525236601</v>
+        <v>2.9746397312000599</v>
       </c>
       <c r="F9" s="3">
-        <v>0.39143472130812901</v>
+        <v>0.39281667627154798</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1169,10 +1164,10 @@
         <v>3</v>
       </c>
       <c r="E10" s="2">
-        <v>2.2348684696742498</v>
+        <v>2.2533144528482598</v>
       </c>
       <c r="F10" s="3">
-        <v>0.29512602650787201</v>
+        <v>0.29756191470131499</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1189,10 +1184,10 @@
         <v>3</v>
       </c>
       <c r="E11" s="2">
-        <v>1.67320704548258</v>
+        <v>1.6806401183547801</v>
       </c>
       <c r="F11" s="3">
-        <v>0.220955708829803</v>
+        <v>0.22193728483361899</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1209,10 +1204,10 @@
         <v>5</v>
       </c>
       <c r="E12" s="2">
-        <v>5.4700560129126403</v>
+        <v>5.4616526905158098</v>
       </c>
       <c r="F12" s="3">
-        <v>0.72234939897904005</v>
+        <v>0.72123969646987995</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1229,10 +1224,10 @@
         <v>5</v>
       </c>
       <c r="E13" s="2">
-        <v>4.7672493213966503</v>
+        <v>5.1187996408050802</v>
       </c>
       <c r="F13" s="3">
-        <v>0.62954011329410098</v>
+        <v>0.67596416477293697</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1249,10 +1244,10 @@
         <v>3</v>
       </c>
       <c r="E14" s="2">
-        <v>3.7818351536102899</v>
+        <v>4.9007945948879703</v>
       </c>
       <c r="F14" s="3">
-        <v>0.49941103780280999</v>
+        <v>0.64717546251451696</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1269,10 +1264,10 @@
         <v>5</v>
       </c>
       <c r="E15" s="2">
-        <v>3.4799951323483098</v>
+        <v>3.4786647493748002</v>
       </c>
       <c r="F15" s="3">
-        <v>0.45955149021650998</v>
+        <v>0.45937580621271601</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1309,10 +1304,10 @@
         <v>3</v>
       </c>
       <c r="E17" s="2">
-        <v>1.0086494819607199</v>
+        <v>2.83192273299453</v>
       </c>
       <c r="F17" s="3">
-        <v>0.13319741979879501</v>
+        <v>0.37397015301209702</v>
       </c>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.2">

--- a/tables/gdd_approach/TableS1_global_inadequacies.xlsx
+++ b/tables/gdd_approach/TableS1_global_inadequacies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/global_intake_inadequacies/tables/gdd_approach/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5398657-1FD2-644F-878F-90865C0D4A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA189C0-7611-8247-8FFA-F92E48799DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19880" yWindow="3020" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -971,7 +971,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tables/gdd_approach/TableS1_global_inadequacies.xlsx
+++ b/tables/gdd_approach/TableS1_global_inadequacies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/global_intake_inadequacies/tables/gdd_approach/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA189C0-7611-8247-8FFA-F92E48799DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C64CBE-3260-FD4B-AFC3-E96D6003F5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19880" yWindow="3020" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8200" yWindow="3020" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableS1_global_inadequacies" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
   <si>
     <t>Vitamin</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>µg DFE</t>
-  </si>
-  <si>
-    <t>µg RAE</t>
   </si>
   <si>
     <t>ug</t>
@@ -672,9 +669,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -712,7 +709,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -818,7 +815,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -960,7 +957,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -971,7 +968,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F17" sqref="A1:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1024,10 +1021,10 @@
         <v>3</v>
       </c>
       <c r="E3" s="2">
-        <v>5.0723590238321803</v>
+        <v>5.0289013175599697</v>
       </c>
       <c r="F3" s="3">
-        <v>0.66983143931648803</v>
+        <v>0.66878137468608001</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1044,10 +1041,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="2">
-        <v>4.1228736559699204</v>
+        <v>4.0988616395822</v>
       </c>
       <c r="F4" s="3">
-        <v>0.54444694906709201</v>
+        <v>0.54509765630037799</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1064,10 +1061,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="2">
-        <v>4.0585494754699898</v>
+        <v>4.0474679909469797</v>
       </c>
       <c r="F5" s="3">
-        <v>0.53595260586214899</v>
+        <v>0.53826293976609696</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1084,10 +1081,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="2">
-        <v>4.0380579157425904</v>
+        <v>4.0112070261161596</v>
       </c>
       <c r="F6" s="3">
-        <v>0.53324658862607499</v>
+        <v>0.53344068210470297</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1104,10 +1101,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="2">
-        <v>3.8967077700000798</v>
+        <v>3.8712059890038302</v>
       </c>
       <c r="F7" s="3">
-        <v>0.51458056535653696</v>
+        <v>0.51482228413961995</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1118,16 +1115,16 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="2">
-        <v>3.6272559727711502</v>
+        <v>3.6042200104160602</v>
       </c>
       <c r="F8" s="3">
-        <v>0.47899805151706698</v>
+        <v>0.47931646716159498</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1138,16 +1135,16 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="2">
-        <v>2.9746397312000599</v>
+        <v>2.9597171851909398</v>
       </c>
       <c r="F9" s="3">
-        <v>0.39281667627154798</v>
+        <v>0.39360560146255202</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1164,10 +1161,10 @@
         <v>3</v>
       </c>
       <c r="E10" s="2">
-        <v>2.2533144528482598</v>
+        <v>2.23535515737214</v>
       </c>
       <c r="F10" s="3">
-        <v>0.29756191470131499</v>
+        <v>0.29727445433037802</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1184,10 +1181,10 @@
         <v>3</v>
       </c>
       <c r="E11" s="2">
-        <v>1.6806401183547801</v>
+        <v>1.6599416407354699</v>
       </c>
       <c r="F11" s="3">
-        <v>0.22193728483361899</v>
+        <v>0.220751608012936</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1195,19 +1192,19 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" s="2">
-        <v>5.4616526905158098</v>
+        <v>5.0788342370791497</v>
       </c>
       <c r="F12" s="3">
-        <v>0.72123969646987995</v>
+        <v>0.67542183240226605</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1215,7 +1212,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -1224,10 +1221,10 @@
         <v>5</v>
       </c>
       <c r="E13" s="2">
-        <v>5.1187996408050802</v>
+        <v>4.9869748882026501</v>
       </c>
       <c r="F13" s="3">
-        <v>0.67596416477293697</v>
+        <v>0.66320568065459096</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1235,19 +1232,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14" s="2">
-        <v>4.9007945948879703</v>
+        <v>4.8730244379302103</v>
       </c>
       <c r="F14" s="3">
-        <v>0.64717546251451696</v>
+        <v>0.64805168697545501</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1264,10 +1261,10 @@
         <v>5</v>
       </c>
       <c r="E15" s="2">
-        <v>3.4786647493748002</v>
+        <v>3.47052355587225</v>
       </c>
       <c r="F15" s="3">
-        <v>0.45937580621271601</v>
+        <v>0.46153650032306198</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1275,19 +1272,19 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="2">
-        <v>3.3588247903917798</v>
+        <v>2.8296807901127599</v>
       </c>
       <c r="F16" s="3">
-        <v>0.44355031518653398</v>
+        <v>0.37631237704473802</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1295,19 +1292,19 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="2">
-        <v>2.83192273299453</v>
+        <v>2.3626996603556298</v>
       </c>
       <c r="F17" s="3">
-        <v>0.37397015301209702</v>
+        <v>0.31420969055516301</v>
       </c>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.2">

--- a/tables/gdd_approach/TableS1_global_inadequacies.xlsx
+++ b/tables/gdd_approach/TableS1_global_inadequacies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/global_intake_inadequacies/tables/gdd_approach/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C64CBE-3260-FD4B-AFC3-E96D6003F5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5B1FC5-F03F-ED4B-ABD0-F1E9805CCB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8200" yWindow="3020" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,8 +113,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -603,12 +604,13 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -968,7 +970,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="A1:F17"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1020,7 +1022,7 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="5">
         <v>5.0289013175599697</v>
       </c>
       <c r="F3" s="3">
@@ -1040,7 +1042,7 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="5">
         <v>4.0988616395822</v>
       </c>
       <c r="F4" s="3">
@@ -1060,7 +1062,7 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="5">
         <v>4.0474679909469797</v>
       </c>
       <c r="F5" s="3">
@@ -1080,7 +1082,7 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="5">
         <v>4.0112070261161596</v>
       </c>
       <c r="F6" s="3">
@@ -1100,7 +1102,7 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="5">
         <v>3.8712059890038302</v>
       </c>
       <c r="F7" s="3">
@@ -1120,7 +1122,7 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="5">
         <v>3.6042200104160602</v>
       </c>
       <c r="F8" s="3">
@@ -1140,7 +1142,7 @@
       <c r="D9" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="5">
         <v>2.9597171851909398</v>
       </c>
       <c r="F9" s="3">
@@ -1160,7 +1162,7 @@
       <c r="D10" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="5">
         <v>2.23535515737214</v>
       </c>
       <c r="F10" s="3">
@@ -1180,7 +1182,7 @@
       <c r="D11" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="5">
         <v>1.6599416407354699</v>
       </c>
       <c r="F11" s="3">
@@ -1200,7 +1202,7 @@
       <c r="D12" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="5">
         <v>5.0788342370791497</v>
       </c>
       <c r="F12" s="3">
@@ -1220,7 +1222,7 @@
       <c r="D13" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="5">
         <v>4.9869748882026501</v>
       </c>
       <c r="F13" s="3">
@@ -1240,7 +1242,7 @@
       <c r="D14" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="5">
         <v>4.8730244379302103</v>
       </c>
       <c r="F14" s="3">
@@ -1260,7 +1262,7 @@
       <c r="D15" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="5">
         <v>3.47052355587225</v>
       </c>
       <c r="F15" s="3">
@@ -1280,7 +1282,7 @@
       <c r="D16" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="5">
         <v>2.8296807901127599</v>
       </c>
       <c r="F16" s="3">
@@ -1300,7 +1302,7 @@
       <c r="D17" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="5">
         <v>2.3626996603556298</v>
       </c>
       <c r="F17" s="3">
